--- a/Cache/Metrics/Metrics_41.xlsx
+++ b/Cache/Metrics/Metrics_41.xlsx
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>60</v>
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>28.88</v>
+        <v>47.52</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Tue Jun 18 12:40:14 2024</t>
+          <t>Tue Jun 18 15:18:07 2024</t>
         </is>
       </c>
     </row>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5303532008830022</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7357512953367875</v>
+        <v>0.7835051546391752</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7049507753396185</v>
+        <v>0.6933943244480287</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>60</v>
@@ -745,36 +745,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5776357457936404</v>
+        <v>0.4849769386611492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7623337434264486</v>
+        <v>0.7106307232112703</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7368196953292436</v>
+        <v>0.6627351651249633</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002283956623208199</v>
+        <v>0.003740338745870747</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001589714267227688</v>
+        <v>0.009770910094055651</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001311451934796623</v>
+        <v>0.004423692414708612</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RR_Breathing_rate</t>
+          <t>EMG_IEMG</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>RR_Max_breath</t>
+          <t>EMG_MAV</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>RR_Min_breath</t>
+          <t>EMG_MAV1</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>60</v>
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5210160639108008</v>
+        <v>0.4903513082460451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7667237661021855</v>
+        <v>0.7543961017030925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7039854213832011</v>
+        <v>0.676646741336476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001914029338063837</v>
+        <v>0.000752788802481507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001446074699581907</v>
+        <v>0.00162621354550319</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00177109413225326</v>
+        <v>0.001019537287577519</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>60</v>
@@ -889,36 +889,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5038011695906432</v>
+        <v>0.4837643863959654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.780359820523954</v>
+        <v>0.7217418343223814</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6886049542997285</v>
+        <v>0.6575738009469153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001670172018740809</v>
+        <v>0.002717893546638434</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001338609301353046</v>
+        <v>0.01272725713014417</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000124545424692738</v>
+        <v>0.004955978678482359</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RR_Breathing_rate</t>
+          <t>EMG_IEMG</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>RR_Max_breath</t>
+          <t>EMG_MAV</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>RR_Min_breath</t>
+          <t>EMG_MAV1</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>60</v>
@@ -967,36 +967,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4991228070175439</v>
+        <v>0.4885964912280702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7790264871906208</v>
+        <v>0.7626727456940222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6834739338904132</v>
+        <v>0.6739048036316276</v>
       </c>
       <c r="F6" t="n">
-        <v>1.077254539858416e-05</v>
+        <v>0.001820560172360726</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002130426737547381</v>
+        <v>0.004685068612513508</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002927029527145357</v>
+        <v>0.001851872237463897</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RR_Breathing_rate</t>
+          <t>EMG_IEMG</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>RR_Max_breath</t>
+          <t>EMG_MAV</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>RR_Min_breath</t>
+          <t>EMG_MAV1</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>60</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.4977671451355662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7803598205239541</v>
+        <v>0.773528754764317</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6841357242073759</v>
+        <v>0.6829110314368193</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.0004328477420897461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001338609301353045</v>
+        <v>0.0008594311124547063</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002498128251501263</v>
+        <v>0.0005670765973176776</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>60</v>
@@ -1111,36 +1111,36 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5328021322758165</v>
+        <v>0.5891633260054313</v>
       </c>
       <c r="D8" t="n">
-        <v>0.769583031794278</v>
+        <v>0.7678562020552903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7098166864230114</v>
+        <v>0.7315697876565024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002948122059931779</v>
+        <v>0.007832608149125876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002092147683245833</v>
+        <v>0.007916959274506164</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002119849234166664</v>
+        <v>0.006999823173161255</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>RR_Breathing_rate</t>
+          <t>EMG_IEMG</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>RR_Max_breath</t>
+          <t>EMG_MAV</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>RR_Min_breath</t>
+          <t>EMG_MAV1</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>60</v>
@@ -1189,36 +1189,36 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5741648346911506</v>
+        <v>0.6224380361222466</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6591526993776233</v>
+        <v>0.6524946687895016</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6722597310673123</v>
+        <v>0.6633968282010848</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01125679020955757</v>
+        <v>0.04091746716512892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01559863946368718</v>
+        <v>0.03537596498811246</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01167311216915597</v>
+        <v>0.02829167137346522</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>RR_Breathing_rate</t>
+          <t>EMG_IEMG</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>RR_Max_breath</t>
+          <t>EMG_MAV</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>RR_Min_breath</t>
+          <t>EMG_MAV1</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>60</v>
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5297918218970851</v>
+        <v>0.5224368045420676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7567913384198663</v>
+        <v>0.7347601472199823</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6970137352286122</v>
+        <v>0.6783911654763413</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002654383996862007</v>
+        <v>0.008316357760527993</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00302962009253828</v>
+        <v>0.01042311496532712</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002506081238989988</v>
+        <v>0.00687280739459665</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>60</v>
